--- a/EmployeesOrders.xlsx
+++ b/EmployeesOrders.xlsx
@@ -8,12 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\source\repos\RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5728B7BF-D1B3-46BE-9731-AF1F8E2E83CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5FBE63-843F-494A-A795-434BB0328E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B6756FCD-7DF3-4A9B-AE99-D3781FDDCA41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{15170E3B-9504-455B-80DD-A27C5CF12A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Все сотрудники" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист9" sheetId="9" r:id="rId9"/>
+    <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
   <si>
     <t>Сотрудник</t>
   </si>
@@ -54,72 +65,69 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>3eryt</t>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>09.10.2023</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>10.10.2023</t>
+  </si>
+  <si>
+    <t>Product3</t>
+  </si>
+  <si>
+    <t>Bob Brown</t>
   </si>
   <si>
     <t>Sales Rep</t>
   </si>
   <si>
+    <t>01.10.2023</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>05.10.2023</t>
+  </si>
+  <si>
+    <t>Product4</t>
+  </si>
+  <si>
+    <t>Charlie Davis</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>02.10.2023</t>
+  </si>
+  <si>
+    <t>06.10.2023</t>
+  </si>
+  <si>
+    <t>Cripe</t>
+  </si>
+  <si>
     <t>Нет заказов</t>
   </si>
   <si>
-    <t>Alice Johnson</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>09.10.2023</t>
-  </si>
-  <si>
-    <t>Product1</t>
-  </si>
-  <si>
-    <t>10.10.2023</t>
-  </si>
-  <si>
-    <t>Product3</t>
-  </si>
-  <si>
-    <t>Bob Brown</t>
-  </si>
-  <si>
-    <t>01.10.2023</t>
-  </si>
-  <si>
-    <t>Product2</t>
-  </si>
-  <si>
-    <t>05.10.2023</t>
-  </si>
-  <si>
-    <t>Product4</t>
-  </si>
-  <si>
-    <t>Charlie Davis</t>
-  </si>
-  <si>
-    <t>Accountant</t>
-  </si>
-  <si>
-    <t>02.10.2023</t>
-  </si>
-  <si>
-    <t>06.10.2023</t>
-  </si>
-  <si>
-    <t>Dana White</t>
-  </si>
-  <si>
-    <t>HR Manager</t>
-  </si>
-  <si>
     <t>Eve Green</t>
   </si>
   <si>
     <t>IT Specialist</t>
   </si>
   <si>
+    <t>FIO</t>
+  </si>
+  <si>
     <t>Frank Black</t>
   </si>
   <si>
@@ -132,12 +140,6 @@
     <t>Logistics</t>
   </si>
   <si>
-    <t>Hank Blue</t>
-  </si>
-  <si>
-    <t>Quality Control</t>
-  </si>
-  <si>
     <t>Jane Smith</t>
   </si>
   <si>
@@ -169,6 +171,9 @@
   </si>
   <si>
     <t>уеуеуеуе</t>
+  </si>
+  <si>
+    <t>фио</t>
   </si>
   <si>
     <t>фио1</t>
@@ -538,7 +543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09900DE9-2BC8-4E96-A7A9-5110386ACE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31761AA-C964-460F-A7B8-847C0AA93123}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -546,7 +551,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
@@ -583,53 +588,62 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>15000.75</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>15000.75</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>6400</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -638,70 +652,61 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>12500</v>
+        <v>8400.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
       <c r="F6">
-        <v>8400.5</v>
+        <v>17500.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>17500.25</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -712,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,148 +725,148 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>10000.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>10000.5</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>18000</v>
+        <v>22500.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>22500.75</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>9600</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>65</v>
@@ -873,4 +878,136 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE8CC54-3A78-469A-AB40-891143EC01CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53462C6-CAFC-4366-902B-DF359995858D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51116A8E-BFD2-4133-8C52-8642A23E8744}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C51AAE-56E4-472B-A314-A28F2B705E56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E34A28-D5E3-4088-81B8-619535F270D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F370FEC1-30C2-4839-A6CD-E38770D608B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB057A11-43EC-47D9-B0DD-D00D3A6163BF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A603EF4-738E-4215-8179-5DFE34282F83}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD9557E-76CD-4CEF-BC2B-B1BC030E3591}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D67437-DA85-43EC-B79B-E96C319B543C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F8FE64-D8CC-472B-A94C-19ADE8DDB907}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>